--- a/test/HDR-VDP/hdrvdp-3.0.7/test_move/Test-1-SP/20/vdp-hdr-detection.xlsx
+++ b/test/HDR-VDP/hdrvdp-3.0.7/test_move/Test-1-SP/20/vdp-hdr-detection.xlsx
@@ -59,302 +59,302 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="true"/>
+    <col min="1" max="1" width="13.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99876097217992033</v>
+        <v>0.4605107229613179</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99906914697665838</v>
+        <v>0.749600940611022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.89838948021033616</v>
+        <v>0.84378233680930959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.80353429334496573</v>
+        <v>0.78043010293449411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.57904476975273811</v>
+        <v>0.53786083894927783</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.75008240553385908</v>
+        <v>0.75058911831883479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.90234673035967128</v>
+        <v>0.82212435736177936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.97019209149702934</v>
+        <v>0.8948709795594989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95353760458000847</v>
+        <v>0.97461329164050958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.89874384717977018</v>
+        <v>0.83160001445933662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.99206933764638838</v>
+        <v>0.92482238729982369</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.89609225459431763</v>
+        <v>0.51412592787567379</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93184123405195041</v>
+        <v>0.80790147634586129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.85767518151885269</v>
+        <v>0.77310399063661939</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.84111489179791266</v>
+        <v>0.48171721800487566</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.97310193100350106</v>
+        <v>0.9414440318114673</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.88788991537077888</v>
+        <v>0.70555388058520208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.87566070990551925</v>
+        <v>0.63919335826256973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.90232185445466595</v>
+        <v>0.72911423685958054</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.82730788485789508</v>
+        <v>0.55590771333753586</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.76398360007957467</v>
+        <v>0.36522072482278184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.34969999412964486</v>
+        <v>0.13551421085294407</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.61926820247474967</v>
+        <v>0.29986791505640281</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.83154191877414696</v>
+        <v>0.35647071364752653</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.75887998870927731</v>
+        <v>0.47833554133527301</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.91888799123120746</v>
+        <v>0.60960533573143871</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.90637478031199903</v>
+        <v>0.78079410756630996</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.82034279631317153</v>
+        <v>0.56551189956343095</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.75432325446290605</v>
+        <v>0.4557728705613332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.71345137390838254</v>
+        <v>0.32236526931202641</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.63915520232690315</v>
+        <v>0.28582176328577386</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.61734448035451739</v>
+        <v>0.33595004834293479</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6684093742697147</v>
+        <v>0.43217313302017379</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.70858868989428525</v>
+        <v>0.31526914221593383</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.70332216879018838</v>
+        <v>0.50016444246607106</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.75884832247816181</v>
+        <v>0.35137368682741782</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.82499329459351534</v>
+        <v>0.48693456171787042</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8734727054554754</v>
+        <v>0.41616577760197559</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.85203899967054353</v>
+        <v>0.58691629571800108</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.70439704274428294</v>
+        <v>0.50353665321129126</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.59765849909471025</v>
+        <v>0.30697273823764004</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.56243400623708362</v>
+        <v>0.36668374045254981</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.25860823283220691</v>
+        <v>0.21905552587398006</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.7240695425948821</v>
+        <v>0.16797525605635169</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.62556955040428741</v>
+        <v>0.30696802984269594</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.40006496081668341</v>
+        <v>0.15985582878980625</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.49787639718098126</v>
+        <v>0.20225265717246357</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.50587607444412386</v>
+        <v>0.11643630441764816</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.47781851698432726</v>
+        <v>0.023561415710373762</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.35392442615689518</v>
+        <v>0.024174930993493129</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.31730106449938661</v>
+        <v>0.016213125049177539</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.32978229469903775</v>
+        <v>0.017380879015799988</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.31097180937225294</v>
+        <v>0.031178057297968055</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.30611586535406637</v>
+        <v>0.096068992242045223</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.27943695017460385</v>
+        <v>0.13158786456568827</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>0.57324589472972109</v>
+        <v>0.16672175078823162</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.44628623205561002</v>
+        <v>0.25725101755816759</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>0.25292611509646357</v>
+        <v>0.13416157424435404</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0.15958949032222994</v>
+        <v>0.12111168938950004</v>
       </c>
     </row>
   </sheetData>
